--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167653.0190126517</v>
+        <v>-170241.629692515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>354.5870099627369</v>
       </c>
       <c r="F2" t="n">
-        <v>240.1061753760203</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>338.7144709239482</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>29.19679948535887</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>167.5287861987544</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>23.96664447136207</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>22.03654722859547</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>151.3804504940398</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>15.92742661275715</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>343.8723744039363</v>
+        <v>220.8789552701356</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247041</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>63.60389756962432</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>195.5842496398005</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>103.1226065694015</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>109.7234882887309</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>117.6579322793563</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703257</v>
       </c>
       <c r="F22" t="n">
-        <v>34.22340015155905</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>113.5028334418564</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758758</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.902695549579</v>
+        <v>1545.153177427444</v>
       </c>
       <c r="C2" t="n">
-        <v>745.9401786091673</v>
+        <v>1176.190660487032</v>
       </c>
       <c r="D2" t="n">
-        <v>745.9401786091673</v>
+        <v>817.9249618802814</v>
       </c>
       <c r="E2" t="n">
-        <v>360.1519260109231</v>
+        <v>459.756264948224</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>459.756264948224</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1935.292509403255</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1545.153177427444</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1547555788524</v>
+        <v>249.6746861477877</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>80.73850321988076</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>80.73850321988076</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>80.73850321988076</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>80.73850321988076</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>80.73850321988076</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1168.012969589583</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1168.012969589583</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V4" t="n">
-        <v>1168.012969589583</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W4" t="n">
-        <v>878.5957995526222</v>
+        <v>477.664237045805</v>
       </c>
       <c r="X4" t="n">
-        <v>878.5957995526222</v>
+        <v>249.6746861477877</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.8032204090921</v>
+        <v>249.6746861477877</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.850280418409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C5" t="n">
-        <v>1196.887763477997</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D5" t="n">
-        <v>838.6220648712467</v>
+        <v>1285.984832846309</v>
       </c>
       <c r="E5" t="n">
-        <v>452.8338122730025</v>
+        <v>900.1965802480647</v>
       </c>
       <c r="F5" t="n">
-        <v>445.888311523799</v>
+        <v>489.2106754584572</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>73.50592518274601</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>73.50592518274601</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1955.989612394221</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1565.850280418409</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.1563325215787</v>
+        <v>622.6901078854036</v>
       </c>
       <c r="C7" t="n">
-        <v>204.1563325215787</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D7" t="n">
-        <v>204.1563325215787</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>204.1563325215787</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>204.1563325215787</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323091</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W7" t="n">
-        <v>606.5973764953485</v>
+        <v>843.4826870289337</v>
       </c>
       <c r="X7" t="n">
-        <v>606.5973764953485</v>
+        <v>843.4826870289337</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.8047973518184</v>
+        <v>622.6901078854036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.32688498653</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>869.3643680461182</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148694</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E8" t="n">
         <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320766</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050652</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.926725050652</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.926725050652</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380217</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.0385070447395</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C10" t="n">
-        <v>350.1023241168326</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1572.199758893058</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1375.571011052919</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1375.571011052919</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1086.452673556757</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.886271953487</v>
+        <v>1086.452673556757</v>
       </c>
       <c r="W10" t="n">
-        <v>1149.469101916527</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X10" t="n">
-        <v>921.4795510185094</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.6869718749792</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.8620388433919</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.070983590888</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2041.469518613829</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1752.394291958027</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1497.70980375214</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1208.292633715179</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>980.3030828171618</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.5105036736317</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>295.5818533952728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>599.4606235519261</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,22 +6221,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929404</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>135.97962399503</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273906</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,58 +6598,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6695,13 +6695,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6889,7 +6889,7 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
         <v>1491.508541327549</v>
@@ -6920,37 +6920,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143858</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878337</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154983</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27.34336010952489</v>
       </c>
       <c r="F2" t="n">
-        <v>147.6011275749608</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>64.12421452922629</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856704</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>43.26526345295097</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>63.36835372228826</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>38.13892827624345</v>
       </c>
       <c r="F22" t="n">
-        <v>111.1976478713722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>31.91821458107485</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546813</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837524</v>
-      </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
         <v>307890.663699106</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.280731668084627e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363205</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81423.93747406533</v>
+        <v>81423.93747406524</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="D4" t="n">
-        <v>131909.7268316249</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707319</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="P4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014392.526886931</v>
+        <v>-1014613.658200906</v>
       </c>
       <c r="C6" t="n">
-        <v>83043.16442763686</v>
+        <v>83043.16442763656</v>
       </c>
       <c r="D6" t="n">
-        <v>83043.16442763618</v>
+        <v>83043.16442763669</v>
       </c>
       <c r="E6" t="n">
-        <v>-312825.4210614077</v>
+        <v>-312860.1589868442</v>
       </c>
       <c r="F6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.282637702</v>
       </c>
       <c r="G6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.2826377022</v>
       </c>
       <c r="H6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.2826377021</v>
       </c>
       <c r="I6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.282637702</v>
       </c>
       <c r="J6" t="n">
-        <v>27054.84275315497</v>
+        <v>27020.10482771971</v>
       </c>
       <c r="K6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.282637702</v>
       </c>
       <c r="L6" t="n">
-        <v>194660.0205631379</v>
+        <v>194625.2826377018</v>
       </c>
       <c r="M6" t="n">
-        <v>62052.72683421131</v>
+        <v>62017.98890877538</v>
       </c>
       <c r="N6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.2826377021</v>
       </c>
       <c r="O6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.2826377024</v>
       </c>
       <c r="P6" t="n">
-        <v>170410.546091758</v>
+        <v>170410.5460917577</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="D4" t="n">
-        <v>640.5848321000392</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241341</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,17 +26978,17 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19.16874279073033</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>72.83323184900581</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>118.05470966977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>53.21990979845751</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>387.5810583015919</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>43.673365443875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.92614955076439</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>270.5955717238339</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.81066721674665</v>
+        <v>133.8040863505473</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>37.95367484994931</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>56.55339368402747</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168762</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>172.8142548092792</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>399.0581126127094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>302.9297349452403</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313186</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>27.13475084531527</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>265.0837051983791</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
